--- a/Modules/Pulse/Pulse_BOM.xlsx
+++ b/Modules/Pulse/Pulse_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\Pulse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1E761-C4CB-4CF0-9C25-C59EA89752C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF7419-09FC-41BD-98B3-1C949F9927C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pulse" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -152,9 +152,6 @@
     <t>L-937EGW</t>
   </si>
   <si>
-    <t>LED 3mm Flat Bicolor</t>
-  </si>
-  <si>
     <t>LED Red/Green</t>
   </si>
   <si>
@@ -919,6 +916,9 @@
   </si>
   <si>
     <t>https://avalonharmonics.etsy.com/listing/4407736708/printed-parts-avalon-harmonics-pulse</t>
+  </si>
+  <si>
+    <t>LED 3mm Dome Bicolor</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1834,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1884,16 +1884,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>23</v>
@@ -1907,16 +1907,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -1927,19 +1927,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>23</v>
@@ -1950,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1965,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1979,16 +1979,16 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,16 +2002,16 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2019,22 +2019,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2045,19 +2045,19 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2077,10 +2077,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2088,22 +2088,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2117,13 +2117,13 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>24</v>
@@ -2140,16 +2140,16 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,22 +2157,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2180,22 +2180,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2203,22 +2203,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2229,19 +2229,19 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2249,22 +2249,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2272,22 +2272,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -2310,7 +2310,7 @@
         <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,19 +2321,19 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,22 +2341,22 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2367,19 +2367,19 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2387,22 +2387,22 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2410,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -2422,10 +2422,10 @@
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2433,19 +2433,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
         <v>97</v>
       </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2453,19 +2453,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
         <v>103</v>
       </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2473,33 +2473,33 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
         <v>99</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -2508,19 +2508,19 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
         <v>49</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="J33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2528,19 +2528,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>49</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="J34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,19 +2548,19 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
         <v>52</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>53</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="J35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2568,19 +2568,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>57</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="J36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2614,16 +2614,16 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="J39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2631,19 +2631,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>63</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="J40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2654,45 +2654,45 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="J42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
         <v>112</v>
-      </c>
-      <c r="E44" t="s">
-        <v>113</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2700,21 +2700,21 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2730,17 +2730,17 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2748,13 +2748,13 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
